--- a/output_validation/0a_pin_male_percentage.xlsx
+++ b/output_validation/0a_pin_male_percentage.xlsx
@@ -480,13 +480,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.6540118601949976</v>
+        <v>0.7683007123928434</v>
       </c>
       <c r="D2">
-        <v>0.2329490092862201</v>
+        <v>0.1175143160328625</v>
       </c>
       <c r="E2">
-        <v>0.1130391305187824</v>
+        <v>0.1141849715742941</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -500,16 +500,16 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>0.3195841598793305</v>
+        <v>0.5191195119111097</v>
       </c>
       <c r="D3">
-        <v>0.5897774930562981</v>
+        <v>0.3429346764047292</v>
       </c>
       <c r="E3">
-        <v>0.02163833014917246</v>
+        <v>0.1379458116841611</v>
       </c>
       <c r="F3">
-        <v>0.06900001691519914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -520,16 +520,16 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.4282774371907243</v>
+        <v>0.3606910160137596</v>
       </c>
       <c r="D4">
-        <v>0.465292329157762</v>
+        <v>0.6393089839862405</v>
       </c>
       <c r="E4">
-        <v>0.05867773143280703</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.04775250221870657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -540,13 +540,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.2596001116751376</v>
+        <v>0.2842263878633318</v>
       </c>
       <c r="D5">
-        <v>0.7251525007435389</v>
+        <v>0.7157736121366682</v>
       </c>
       <c r="E5">
-        <v>0.01524738758132347</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -560,16 +560,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.04861766279749088</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8488057624659348</v>
+        <v>0.8320952437399765</v>
       </c>
       <c r="E6">
-        <v>0.01874899599464879</v>
+        <v>0.1679047562600235</v>
       </c>
       <c r="F6">
-        <v>0.08382757874192558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -580,16 +580,16 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.3139748305934238</v>
+        <v>0.303794032771545</v>
       </c>
       <c r="D7">
-        <v>0.5915523224995896</v>
+        <v>0.53021289991252</v>
       </c>
       <c r="E7">
-        <v>0.06789595527463371</v>
+        <v>0.1659930673159349</v>
       </c>
       <c r="F7">
-        <v>0.0265768916323528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -600,13 +600,13 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.6688827647836127</v>
+        <v>0.8238233498336641</v>
       </c>
       <c r="D8">
-        <v>0.2618557855553887</v>
+        <v>0.1761766501663359</v>
       </c>
       <c r="E8">
-        <v>0.06926144966099851</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.4228032570458399</v>
+        <v>0.3730845400359347</v>
       </c>
       <c r="D9">
-        <v>0.4106630319422648</v>
+        <v>0.4011707121422344</v>
       </c>
       <c r="E9">
-        <v>0.08301522853837168</v>
+        <v>0.2257447478218309</v>
       </c>
       <c r="F9">
-        <v>0.08351848247352356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -640,16 +640,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.5553267378807409</v>
+        <v>0.7252583117675182</v>
       </c>
       <c r="D10">
-        <v>0.2857939673992496</v>
+        <v>0.09952567634425109</v>
       </c>
       <c r="E10">
-        <v>0.07349868043284102</v>
+        <v>0.1752160118882306</v>
       </c>
       <c r="F10">
-        <v>0.08538061428716844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -660,16 +660,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.2903546969040392</v>
+        <v>0.4359311616766347</v>
       </c>
       <c r="D11">
-        <v>0.5095981950530968</v>
+        <v>0.3674793421540102</v>
       </c>
       <c r="E11">
-        <v>0.1767228389255024</v>
+        <v>0.1965894961693551</v>
       </c>
       <c r="F11">
-        <v>0.02332426911736172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -680,13 +680,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.5593708819099853</v>
+        <v>0.4978562609662319</v>
       </c>
       <c r="D12">
-        <v>0.4086532998696034</v>
+        <v>0.5021437390337681</v>
       </c>
       <c r="E12">
-        <v>0.03197581822041135</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.1583284297571598</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.8068898558470062</v>
+        <v>0.8779143024536373</v>
       </c>
       <c r="E13">
-        <v>0.03478171439583397</v>
+        <v>0.1220856975463627</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>0.2823734803505052</v>
+        <v>0.3624841653899225</v>
       </c>
       <c r="D2">
-        <v>0.6573722163971507</v>
+        <v>0.5260338290722316</v>
       </c>
       <c r="E2">
-        <v>0.06025430325234421</v>
+        <v>0.1114820055378459</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -806,13 +806,13 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>0.7479750560573946</v>
+        <v>0.7625006163381717</v>
       </c>
       <c r="D2">
-        <v>0.229998866780615</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02202607716199041</v>
+        <v>0.2374993836618283</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>0.2899498531625629</v>
+        <v>0.2785826575513146</v>
       </c>
       <c r="D3">
-        <v>0.6624921725493361</v>
+        <v>0.7214173424486855</v>
       </c>
       <c r="E3">
-        <v>0.0475579742881008</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -846,16 +846,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>0.5664132847520789</v>
+        <v>0.5625343327275589</v>
       </c>
       <c r="D4">
-        <v>0.3802086730760768</v>
+        <v>0.437465667272441</v>
       </c>
       <c r="E4">
-        <v>0.04346546589109143</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.009912576280752863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -866,16 +866,16 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>0.2763671132366832</v>
+        <v>0.07083158671388184</v>
       </c>
       <c r="D5">
-        <v>0.6550785339776489</v>
+        <v>0.7797727386158069</v>
       </c>
       <c r="E5">
-        <v>0.05162703592585307</v>
+        <v>0.06926931685139751</v>
       </c>
       <c r="F5">
-        <v>0.01692731685981476</v>
+        <v>0.0801263578189137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -886,16 +886,16 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0.1746538347093081</v>
+        <v>0.2221725088733424</v>
       </c>
       <c r="D6">
-        <v>0.773964089295205</v>
+        <v>0.7778274911266575</v>
       </c>
       <c r="E6">
-        <v>0.04132606974079942</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01005600625468734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -906,13 +906,13 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>0.7936303282700614</v>
+        <v>0.8891652018440264</v>
       </c>
       <c r="D7">
-        <v>0.1870216821339076</v>
+        <v>0.05701166184594353</v>
       </c>
       <c r="E7">
-        <v>0.01934798959603097</v>
+        <v>0.05382313631002998</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -926,13 +926,13 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>0.7312961625531302</v>
+        <v>0.6765720390322051</v>
       </c>
       <c r="D8">
-        <v>0.2349945367094737</v>
+        <v>0.2256752448089147</v>
       </c>
       <c r="E8">
-        <v>0.03370930073739602</v>
+        <v>0.09775271615888015</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>0.7801742695693389</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.1575988297589671</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0622269006716941</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -966,13 +966,13 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.7929942800969818</v>
+        <v>0.4930934922323051</v>
       </c>
       <c r="D10">
-        <v>0.1780685290760373</v>
+        <v>0.5069065077676949</v>
       </c>
       <c r="E10">
-        <v>0.02893719082698087</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>0.791065957409446</v>
+        <v>0.857318972308269</v>
       </c>
       <c r="D11">
-        <v>0.1931232883155541</v>
+        <v>0.142681027691731</v>
       </c>
       <c r="E11">
-        <v>0.01581075427499976</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>0.628663794284451</v>
+        <v>0.5806145767900539</v>
       </c>
       <c r="D12">
-        <v>0.1764936784966122</v>
+        <v>0.2262579643414813</v>
       </c>
       <c r="E12">
-        <v>0.09349543837260667</v>
+        <v>0.1931274588684647</v>
       </c>
       <c r="F12">
-        <v>0.1013470888463301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1026,16 +1026,16 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>0.4391019149385846</v>
+        <v>0.06499055438046973</v>
       </c>
       <c r="D13">
-        <v>0.4876446382271574</v>
+        <v>0.7740026053855156</v>
       </c>
       <c r="E13">
-        <v>0.06455350389900151</v>
+        <v>0.07327202925890423</v>
       </c>
       <c r="F13">
-        <v>0.008699942935256486</v>
+        <v>0.08773481097511046</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1046,16 +1046,16 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>0.624700271132733</v>
+        <v>0.5514417177181167</v>
       </c>
       <c r="D14">
-        <v>0.2918746545088312</v>
+        <v>0.4485582822818833</v>
       </c>
       <c r="E14">
-        <v>0.07539968673165817</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.00802538762677754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1066,13 +1066,13 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>0.7841582527586344</v>
+        <v>0.7714020824206588</v>
       </c>
       <c r="D15">
-        <v>0.1496428406259407</v>
+        <v>0.2285979175793412</v>
       </c>
       <c r="E15">
-        <v>0.06619890661542482</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1086,13 +1086,13 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.5831172771890769</v>
+        <v>0.8794025374140514</v>
       </c>
       <c r="D16">
-        <v>0.3873957991753649</v>
+        <v>0.1205974625859487</v>
       </c>
       <c r="E16">
-        <v>0.02948692363555816</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.8444730632458506</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.1165588997972592</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03896803695689039</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1126,13 +1126,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>0.9240234766960284</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.026949994451861</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04902652885211051</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1146,13 +1146,13 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.8674312585554411</v>
+        <v>0.9019696396363932</v>
       </c>
       <c r="D19">
-        <v>0.1053186169796036</v>
+        <v>0.09803036036360673</v>
       </c>
       <c r="E19">
-        <v>0.02725012446495541</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>23</v>
       </c>
       <c r="C2">
-        <v>0.5853868264010187</v>
+        <v>0.5728914991970709</v>
       </c>
       <c r="D2">
-        <v>0.3794977558531176</v>
+        <v>0.427108500802929</v>
       </c>
       <c r="E2">
-        <v>0.03511541774586386</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>0.1881113598201735</v>
+        <v>0.1612653202823215</v>
       </c>
       <c r="D3">
-        <v>0.6803408258131957</v>
+        <v>0.7973035518230968</v>
       </c>
       <c r="E3">
-        <v>0.02539776024089409</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1061500541257369</v>
+        <v>0.04143112789458182</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1239,13 +1239,13 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.4522314307539207</v>
+        <v>0.8182504121154449</v>
       </c>
       <c r="D4">
-        <v>0.535172232157055</v>
+        <v>0.1817495878845551</v>
       </c>
       <c r="E4">
-        <v>0.01259633708902428</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.3628408843989914</v>
+        <v>0.4350794172658147</v>
       </c>
       <c r="D5">
-        <v>0.5612727249817211</v>
+        <v>0.4308936255144685</v>
       </c>
       <c r="E5">
-        <v>0.07588639061928751</v>
+        <v>0.1340269572197167</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>0.07316629031944184</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9268337096805581</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>0.443996661956498</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.4760960270901249</v>
+        <v>0.4777785667786625</v>
       </c>
       <c r="E7">
-        <v>0.07990731095337696</v>
+        <v>0.5222214332213376</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1319,13 +1319,13 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.3918059515410319</v>
+        <v>0.4834006898809273</v>
       </c>
       <c r="D8">
-        <v>0.534593454033195</v>
+        <v>0.5165993101190727</v>
       </c>
       <c r="E8">
-        <v>0.07360059442577312</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>0.3246193244816443</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5008968621725338</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.129743185531197</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04474062781462478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1359,16 +1359,16 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.4928355615432358</v>
+        <v>0.4575248580937195</v>
       </c>
       <c r="D10">
-        <v>0.3626867371558554</v>
+        <v>0.4112656483143128</v>
       </c>
       <c r="E10">
-        <v>0.1190506602479244</v>
+        <v>0.1312094935919678</v>
       </c>
       <c r="F10">
-        <v>0.02542704105298452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1379,16 +1379,16 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.2535230518171918</v>
+        <v>0.3049422361569381</v>
       </c>
       <c r="D11">
-        <v>0.6450779162767399</v>
+        <v>0.5914072789892476</v>
       </c>
       <c r="E11">
-        <v>0.09519507690366545</v>
+        <v>0.1036504848538142</v>
       </c>
       <c r="F11">
-        <v>0.006203955002402782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1399,13 +1399,13 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>0.5718279007459466</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2237822709111292</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.2043898283429242</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>0.4177383882796832</v>
+        <v>0.5801790585323959</v>
       </c>
       <c r="D13">
-        <v>0.4557602641860585</v>
+        <v>0.4198209414676041</v>
       </c>
       <c r="E13">
-        <v>0.03652022065847701</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.08998112687578116</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/0a_pin_male_percentage.xlsx
+++ b/output_validation/0a_pin_male_percentage.xlsx
@@ -17,75 +17,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>pop_group</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>idp</t>
   </si>
   <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
     <t>ndsp</t>
   </si>
   <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
   </si>
   <si>
     <t>ocap</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
   </si>
   <si>
     <t>ret</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,16 +477,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0.7683007123928434</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.1175143160328625</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1141849715742941</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -497,16 +497,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>0.5191195119111097</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3429346764047292</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.1379458116841611</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -517,16 +517,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.3606910160137596</v>
+        <v>0.4277355731430004</v>
       </c>
       <c r="D4">
-        <v>0.6393089839862405</v>
+        <v>0.3971100340829685</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1751543927740311</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -537,13 +537,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.2842263878633318</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7157736121366682</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -557,16 +557,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.5058192528226277</v>
       </c>
       <c r="D6">
-        <v>0.8320952437399765</v>
+        <v>0.252790446765425</v>
       </c>
       <c r="E6">
-        <v>0.1679047562600235</v>
+        <v>0.2413903004119472</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -577,16 +577,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>0.303794032771545</v>
+        <v>0.7683007123928434</v>
       </c>
       <c r="D7">
-        <v>0.53021289991252</v>
+        <v>0.1175143160328625</v>
       </c>
       <c r="E7">
-        <v>0.1659930673159349</v>
+        <v>0.1141849715742941</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -597,16 +597,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.8238233498336641</v>
+        <v>0.7683007123928434</v>
       </c>
       <c r="D8">
-        <v>0.1761766501663359</v>
+        <v>0.1175143160328625</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.1141849715742941</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -617,16 +617,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0.3730845400359347</v>
+        <v>0.7683007123928434</v>
       </c>
       <c r="D9">
-        <v>0.4011707121422344</v>
+        <v>0.1175143160328625</v>
       </c>
       <c r="E9">
-        <v>0.2257447478218309</v>
+        <v>0.1141849715742941</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -637,16 +637,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>0.7252583117675182</v>
+        <v>0.5191195119111097</v>
       </c>
       <c r="D10">
-        <v>0.09952567634425109</v>
+        <v>0.3429346764047292</v>
       </c>
       <c r="E10">
-        <v>0.1752160118882306</v>
+        <v>0.1379458116841611</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -657,16 +657,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>0.4359311616766347</v>
+        <v>0.5191195119111097</v>
       </c>
       <c r="D11">
-        <v>0.3674793421540102</v>
+        <v>0.3429346764047292</v>
       </c>
       <c r="E11">
-        <v>0.1965894961693551</v>
+        <v>0.1379458116841611</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -677,38 +677,18 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>0.4978562609662319</v>
+        <v>0.5191195119111097</v>
       </c>
       <c r="D12">
-        <v>0.5021437390337681</v>
+        <v>0.3429346764047292</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.1379458116841611</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0.8779143024536373</v>
-      </c>
-      <c r="E13">
-        <v>0.1220856975463627</v>
-      </c>
-      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -719,7 +699,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -747,21 +727,101 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>0.3505088637148185</v>
+      </c>
+      <c r="D2">
+        <v>0.3607544864407373</v>
+      </c>
+      <c r="E2">
+        <v>0.2887366498444441</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0.6289713501553212</v>
+      </c>
+      <c r="D4">
+        <v>0.3710286498446787</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>0.3624841653899225</v>
-      </c>
-      <c r="D2">
-        <v>0.5260338290722316</v>
-      </c>
-      <c r="E2">
-        <v>0.1114820055378459</v>
-      </c>
-      <c r="F2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
@@ -772,7 +832,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -800,19 +860,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>0.7625006163381717</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2374993836618283</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -820,16 +880,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>0.2785826575513146</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7214173424486855</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -840,19 +900,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>0.5625343327275589</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.437465667272441</v>
+        <v>0.5285901027516089</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.4714098972483911</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -860,59 +920,59 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.07083158671388184</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7797727386158069</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.06926931685139751</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0801263578189137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>0.2221725088733424</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7778274911266575</v>
+        <v>0.8124667451313677</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1875332548686322</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>0.8891652018440264</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05701166184594353</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.05382313631002998</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -920,19 +980,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.6765720390322051</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.2256752448089147</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09775271615888015</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -940,19 +1000,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.7625006163381717</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2374993836618283</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -960,19 +1020,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>0.4930934922323051</v>
+        <v>0.7625006163381717</v>
       </c>
       <c r="D10">
-        <v>0.5069065077676949</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.2374993836618283</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -980,19 +1040,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0.857318972308269</v>
+        <v>0.7625006163381717</v>
       </c>
       <c r="D11">
-        <v>0.142681027691731</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2374993836618283</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1003,16 +1063,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>0.5806145767900539</v>
+        <v>0.2785826575513146</v>
       </c>
       <c r="D12">
-        <v>0.2262579643414813</v>
+        <v>0.7214173424486855</v>
       </c>
       <c r="E12">
-        <v>0.1931274588684647</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1023,138 +1083,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0.06499055438046973</v>
+        <v>0.2785826575513146</v>
       </c>
       <c r="D13">
-        <v>0.7740026053855156</v>
+        <v>0.7214173424486855</v>
       </c>
       <c r="E13">
-        <v>0.07327202925890423</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.08773481097511046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>0.5514417177181167</v>
+        <v>0.2785826575513146</v>
       </c>
       <c r="D14">
-        <v>0.4485582822818833</v>
+        <v>0.7214173424486855</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15">
-        <v>0.7714020824206588</v>
-      </c>
-      <c r="D15">
-        <v>0.2285979175793412</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>0.8794025374140514</v>
-      </c>
-      <c r="D16">
-        <v>0.1205974625859487</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>0.9019696396363932</v>
-      </c>
-      <c r="D19">
-        <v>0.09803036036360673</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
         <v>0</v>
       </c>
     </row>
@@ -1165,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1193,16 +1153,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2">
-        <v>0.5728914991970709</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.427108500802929</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1219,16 +1179,16 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>0.1612653202823215</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7973035518230968</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.04143112789458182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1239,13 +1199,13 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.8182504121154449</v>
+        <v>0.4870849151903637</v>
       </c>
       <c r="D4">
-        <v>0.1817495878845551</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5129150848096363</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1259,13 +1219,13 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.4350794172658147</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4308936255144685</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.1340269572197167</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1273,16 +1233,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.5613538191485988</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.4386461808514012</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1293,19 +1253,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.4777785667786625</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5222214332213376</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1313,16 +1273,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.4834006898809273</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5165993101190727</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1333,16 +1293,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.5728914991970709</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.427108500802929</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1353,19 +1313,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.4575248580937195</v>
+        <v>0.5728914991970709</v>
       </c>
       <c r="D10">
-        <v>0.4112656483143128</v>
+        <v>0.427108500802929</v>
       </c>
       <c r="E10">
-        <v>0.1312094935919678</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1373,19 +1333,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.3049422361569381</v>
+        <v>0.5728914991970709</v>
       </c>
       <c r="D11">
-        <v>0.5914072789892476</v>
+        <v>0.427108500802929</v>
       </c>
       <c r="E11">
-        <v>0.1036504848538142</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1393,42 +1353,62 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1612653202823215</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.7973035518230968</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.04143112789458182</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13">
-        <v>0.5801790585323959</v>
+        <v>0.1612653202823215</v>
       </c>
       <c r="D13">
-        <v>0.4198209414676041</v>
+        <v>0.7973035518230968</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.04143112789458182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>0.1612653202823215</v>
+      </c>
+      <c r="D14">
+        <v>0.7973035518230968</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.04143112789458182</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/0a_pin_male_percentage.xlsx
+++ b/output_validation/0a_pin_male_percentage.xlsx
@@ -17,75 +17,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>pop_group</t>
   </si>
   <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
   </si>
   <si>
     <t>idp</t>
   </si>
   <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
     <t>ndsp</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
   </si>
   <si>
     <t>ret</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,16 +477,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.6540118601949976</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2329490092862201</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1130391305187824</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -497,19 +497,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.3195841598793305</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.5897774930562981</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.02163833014917246</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.06900001691519914</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -517,19 +517,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0.4277355731430004</v>
+        <v>0.4282774371907243</v>
       </c>
       <c r="D4">
-        <v>0.3971100340829685</v>
+        <v>0.465292329157762</v>
       </c>
       <c r="E4">
-        <v>0.1751543927740311</v>
+        <v>0.05867773143280703</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.04775250221870657</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -537,16 +537,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.2596001116751376</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.7251525007435389</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01524738758132347</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -557,19 +557,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.5058192528226277</v>
+        <v>0.04861766279749088</v>
       </c>
       <c r="D6">
-        <v>0.252790446765425</v>
+        <v>0.8488057624659348</v>
       </c>
       <c r="E6">
-        <v>0.2413903004119472</v>
+        <v>0.01874899599464879</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.08382757874192558</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -577,19 +577,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0.7683007123928434</v>
+        <v>0.3139748305934238</v>
       </c>
       <c r="D7">
-        <v>0.1175143160328625</v>
+        <v>0.5915523224995896</v>
       </c>
       <c r="E7">
-        <v>0.1141849715742941</v>
+        <v>0.06789595527463371</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0265768916323528</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -597,16 +597,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>0.7683007123928434</v>
+        <v>0.6688827647836127</v>
       </c>
       <c r="D8">
-        <v>0.1175143160328625</v>
+        <v>0.2618557855553887</v>
       </c>
       <c r="E8">
-        <v>0.1141849715742941</v>
+        <v>0.06926144966099851</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.7683007123928434</v>
+        <v>0.4228032570458399</v>
       </c>
       <c r="D9">
-        <v>0.1175143160328625</v>
+        <v>0.4106630319422648</v>
       </c>
       <c r="E9">
-        <v>0.1141849715742941</v>
+        <v>0.08301522853837168</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.08351848247352356</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -637,19 +637,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0.5191195119111097</v>
+        <v>0.5553267378807409</v>
       </c>
       <c r="D10">
-        <v>0.3429346764047292</v>
+        <v>0.2857939673992496</v>
       </c>
       <c r="E10">
-        <v>0.1379458116841611</v>
+        <v>0.07349868043284102</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.08538061428716844</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -657,19 +657,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>0.5191195119111097</v>
+        <v>0.2903546969040392</v>
       </c>
       <c r="D11">
-        <v>0.3429346764047292</v>
+        <v>0.5095981950530968</v>
       </c>
       <c r="E11">
-        <v>0.1379458116841611</v>
+        <v>0.1767228389255024</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.02332426911736172</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -677,18 +677,38 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0.5593708819099853</v>
+      </c>
+      <c r="D12">
+        <v>0.4086532998696034</v>
+      </c>
+      <c r="E12">
+        <v>0.03197581822041135</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>0.5191195119111097</v>
-      </c>
-      <c r="D12">
-        <v>0.3429346764047292</v>
-      </c>
-      <c r="E12">
-        <v>0.1379458116841611</v>
-      </c>
-      <c r="F12">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0.1583284297571598</v>
+      </c>
+      <c r="D13">
+        <v>0.8068898558470062</v>
+      </c>
+      <c r="E13">
+        <v>0.03478171439583397</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -699,7 +719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -727,101 +747,21 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.3505088637148185</v>
+        <v>0.2823734803505052</v>
       </c>
       <c r="D2">
-        <v>0.3607544864407373</v>
+        <v>0.6573722163971507</v>
       </c>
       <c r="E2">
-        <v>0.2887366498444441</v>
+        <v>0.06025430325234421</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>0.6289713501553212</v>
-      </c>
-      <c r="D4">
-        <v>0.3710286498446787</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
         <v>0</v>
       </c>
     </row>
@@ -832,7 +772,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -860,19 +800,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.7479750560573946</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.229998866780615</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02202607716199041</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -880,19 +820,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.2899498531625629</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.6624921725493361</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0475579742881008</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -900,79 +840,79 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.5664132847520789</v>
       </c>
       <c r="D4">
-        <v>0.5285901027516089</v>
+        <v>0.3802086730760768</v>
       </c>
       <c r="E4">
-        <v>0.4714098972483911</v>
+        <v>0.04346546589109143</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.009912576280752863</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.2763671132366832</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.6550785339776489</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.05162703592585307</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.01692731685981476</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.1746538347093081</v>
       </c>
       <c r="D6">
-        <v>0.8124667451313677</v>
+        <v>0.773964089295205</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.04132606974079942</v>
       </c>
       <c r="F6">
-        <v>0.1875332548686322</v>
+        <v>0.01005600625468734</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.7936303282700614</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.1870216821339076</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.01934798959603097</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -980,19 +920,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.7312961625531302</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2349945367094737</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.03370930073739602</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1000,19 +940,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.7625006163381717</v>
+        <v>0.7801742695693389</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1575988297589671</v>
       </c>
       <c r="E9">
-        <v>0.2374993836618283</v>
+        <v>0.0622269006716941</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1020,19 +960,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>0.7625006163381717</v>
+        <v>0.7929942800969818</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.1780685290760373</v>
       </c>
       <c r="E10">
-        <v>0.2374993836618283</v>
+        <v>0.02893719082698087</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1040,19 +980,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>0.7625006163381717</v>
+        <v>0.791065957409446</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1931232883155541</v>
       </c>
       <c r="E11">
-        <v>0.2374993836618283</v>
+        <v>0.01581075427499976</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1063,19 +1003,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0.2785826575513146</v>
+        <v>0.628663794284451</v>
       </c>
       <c r="D12">
-        <v>0.7214173424486855</v>
+        <v>0.1764936784966122</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.09349543837260667</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.1013470888463301</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1083,38 +1023,138 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>0.2785826575513146</v>
+        <v>0.4391019149385846</v>
       </c>
       <c r="D13">
-        <v>0.7214173424486855</v>
+        <v>0.4876446382271574</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.06455350389900151</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.008699942935256486</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>0.624700271132733</v>
+      </c>
+      <c r="D14">
+        <v>0.2918746545088312</v>
+      </c>
+      <c r="E14">
+        <v>0.07539968673165817</v>
+      </c>
+      <c r="F14">
+        <v>0.00802538762677754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>0.7841582527586344</v>
+      </c>
+      <c r="D15">
+        <v>0.1496428406259407</v>
+      </c>
+      <c r="E15">
+        <v>0.06619890661542482</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>0.5831172771890769</v>
+      </c>
+      <c r="D16">
+        <v>0.3873957991753649</v>
+      </c>
+      <c r="E16">
+        <v>0.02948692363555816</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>0.8444730632458506</v>
+      </c>
+      <c r="D17">
+        <v>0.1165588997972592</v>
+      </c>
+      <c r="E17">
+        <v>0.03896803695689039</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>0.9240234766960284</v>
+      </c>
+      <c r="D18">
+        <v>0.026949994451861</v>
+      </c>
+      <c r="E18">
+        <v>0.04902652885211051</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
-        <v>0.2785826575513146</v>
-      </c>
-      <c r="D14">
-        <v>0.7214173424486855</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>0.8674312585554411</v>
+      </c>
+      <c r="D19">
+        <v>0.1053186169796036</v>
+      </c>
+      <c r="E19">
+        <v>0.02725012446495541</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
     </row>
@@ -1125,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1153,19 +1193,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5853868264010187</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.3794977558531176</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03511541774586386</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1179,16 +1219,16 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1881113598201735</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.6803408258131957</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.02539776024089409</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.1061500541257369</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1199,13 +1239,13 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.4870849151903637</v>
+        <v>0.4522314307539207</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.535172232157055</v>
       </c>
       <c r="E4">
-        <v>0.5129150848096363</v>
+        <v>0.01259633708902428</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1219,13 +1259,13 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.3628408843989914</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.5612727249817211</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.07588639061928751</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1233,16 +1273,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6">
-        <v>0.5613538191485988</v>
+        <v>0.07316629031944184</v>
       </c>
       <c r="D6">
-        <v>0.4386461808514012</v>
+        <v>0.9268337096805581</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1253,19 +1293,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.443996661956498</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.4760960270901249</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.07990731095337696</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1273,19 +1313,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.3918059515410319</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.534593454033195</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.07360059442577312</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1293,122 +1333,102 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9">
-        <v>0.5728914991970709</v>
+        <v>0.3246193244816443</v>
       </c>
       <c r="D9">
-        <v>0.427108500802929</v>
+        <v>0.5008968621725338</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.129743185531197</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.04474062781462478</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.5728914991970709</v>
+        <v>0.4928355615432358</v>
       </c>
       <c r="D10">
-        <v>0.427108500802929</v>
+        <v>0.3626867371558554</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1190506602479244</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.02542704105298452</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.5728914991970709</v>
+        <v>0.2535230518171918</v>
       </c>
       <c r="D11">
-        <v>0.427108500802929</v>
+        <v>0.6450779162767399</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.09519507690366545</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.006203955002402782</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12">
-        <v>0.1612653202823215</v>
+        <v>0.5718279007459466</v>
       </c>
       <c r="D12">
-        <v>0.7973035518230968</v>
+        <v>0.2237822709111292</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.2043898283429242</v>
       </c>
       <c r="F12">
-        <v>0.04143112789458182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13">
-        <v>0.1612653202823215</v>
+        <v>0.4177383882796832</v>
       </c>
       <c r="D13">
-        <v>0.7973035518230968</v>
+        <v>0.4557602641860585</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.03652022065847701</v>
       </c>
       <c r="F13">
-        <v>0.04143112789458182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>0.1612653202823215</v>
-      </c>
-      <c r="D14">
-        <v>0.7973035518230968</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.04143112789458182</v>
+        <v>0.08998112687578116</v>
       </c>
     </row>
   </sheetData>
